--- a/posesiones/1486001.xlsx
+++ b/posesiones/1486001.xlsx
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>11</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>13</v>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>16</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>20</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>13</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>15</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>20</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>22</v>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24">
         <v>18</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R26">
         <v>10</v>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R27">
         <v>11</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R31">
         <v>12</v>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R32">
         <v>12</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R34">
         <v>13</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R36">
         <v>17</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R38">
         <v>10</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R40">
         <v>17</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R41">
         <v>17</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R43">
         <v>28</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R49">
         <v>28</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R53">
         <v>8</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>29</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>28</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>17</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>13</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R86">
         <v>28</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89">
         <v>20</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>9</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R93">
         <v>20</v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6758,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>12</v>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R104">
         <v>7</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R106">
         <v>3</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R113">
         <v>16</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R117">
         <v>20</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R120">
         <v>23</v>
@@ -7699,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7743,10 +7743,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R123">
         <v>19</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R130">
         <v>17</v>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8278,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R133">
         <v>14</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8381,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R135">
         <v>13</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R137">
         <v>13</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>15</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R140">
         <v>16</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R143">
         <v>25</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9169,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9316,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R154">
         <v>26</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R156">
         <v>9</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R158">
         <v>8</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R160">
         <v>25</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10148,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R171">
         <v>25</v>
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R172">
         <v>21</v>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10304,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R174">
         <v>15</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10404,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R176">
         <v>10</v>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10507,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R178">
         <v>7</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10607,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R180">
         <v>23</v>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R185">
         <v>13</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R191">
         <v>13</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R195">
         <v>33</v>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11489,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R198">
         <v>19</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R206">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11977,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R208">
         <v>10</v>
@@ -12030,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R209">
         <v>21</v>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R211">
         <v>19</v>
@@ -12180,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12465,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R218">
         <v>16</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12706,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R223">
         <v>18</v>
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R225">
         <v>24</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12900,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>15</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13100,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R231">
         <v>17</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13529,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R240">
         <v>8</v>
@@ -13582,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R241">
         <v>16</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13676,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13773,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R245">
         <v>15</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R247">
         <v>23</v>
@@ -13920,10 +13920,10 @@
         <v>1</v>
       </c>
       <c r="P248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14340,10 +14340,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q257">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14393,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R258">
         <v>22</v>
@@ -14446,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14496,7 +14496,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R260">
         <v>26</v>
@@ -14546,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14593,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14690,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R264">
         <v>18</v>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14793,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R266">
         <v>18</v>
@@ -14846,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R267">
         <v>6</v>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14946,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R269">
         <v>5</v>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15046,7 +15046,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R274">
         <v>13</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R275">
         <v>27</v>
@@ -15299,7 +15299,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R276">
         <v>8</v>
@@ -15352,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15446,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R280">
         <v>8</v>
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15599,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R282">
         <v>28</v>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R284">
         <v>13</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R286">
         <v>9</v>
@@ -15858,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15908,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R288">
         <v>19</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R289">
         <v>16</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16108,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R293">
         <v>13</v>
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16358,7 +16358,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R300">
         <v>26</v>
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16605,7 +16605,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R302">
         <v>18</v>
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16708,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R304">
         <v>6</v>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16852,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R307">
         <v>0</v>
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16952,7 +16952,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R309">
         <v>16</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R312">
         <v>19</v>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17199,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R314">
         <v>20</v>
@@ -17249,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17299,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R316">
         <v>5</v>
@@ -17349,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17449,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R319">
         <v>23</v>
@@ -17499,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17593,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17643,7 +17643,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R323">
         <v>18</v>
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R324">
         <v>18</v>
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17799,7 +17799,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R326">
         <v>10</v>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R328">
         <v>10</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R329">
         <v>24</v>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18055,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18102,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18152,7 +18152,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R333">
         <v>13</v>
@@ -18202,7 +18202,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R335">
         <v>20</v>
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18349,7 +18349,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18537,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18587,7 +18587,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R342">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R343">
         <v>24</v>
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18740,7 +18740,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R345">
         <v>21</v>
@@ -18787,7 +18787,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18881,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18975,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19022,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19166,7 +19166,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R354">
         <v>35</v>
@@ -19219,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19407,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19457,7 +19457,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R360">
         <v>5</v>
@@ -19501,10 +19501,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19551,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19598,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19639,10 +19639,10 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R365">
         <v>14</v>
@@ -19745,7 +19745,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R366">
         <v>25</v>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19845,7 +19845,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19892,7 +19892,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19939,7 +19939,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19986,7 +19986,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20083,7 +20083,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R373">
         <v>38</v>
@@ -20136,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20186,7 +20186,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R375">
         <v>11</v>
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20286,7 +20286,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R377">
         <v>20</v>
@@ -20336,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20383,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20430,7 +20430,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20477,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20524,7 +20524,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20571,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20618,7 +20618,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20712,7 +20712,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20759,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20900,7 +20900,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20950,7 +20950,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R391">
         <v>37</v>
@@ -21003,7 +21003,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R392">
         <v>20</v>
@@ -21056,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21106,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R394">
         <v>16</v>
@@ -21159,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21209,7 +21209,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R396">
         <v>12</v>
@@ -21262,7 +21262,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R397">
         <v>27</v>
@@ -21312,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21406,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21503,7 +21503,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R402">
         <v>22</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R404">
         <v>8</v>
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21709,7 +21709,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R406">
         <v>8</v>
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R408">
         <v>12</v>
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21953,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22047,7 +22047,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22141,7 +22141,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22188,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22235,7 +22235,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22329,7 +22329,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22429,7 +22429,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R421">
         <v>19</v>
@@ -22479,7 +22479,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22529,7 +22529,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R423">
         <v>11</v>
@@ -22582,7 +22582,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22773,7 +22773,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R428">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R429">
         <v>20</v>
@@ -22876,7 +22876,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22926,7 +22926,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R431">
         <v>17</v>
@@ -22976,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23070,7 +23070,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R434">
         <v>17</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23173,7 +23173,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R436">
         <v>19</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23320,7 +23320,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R439">
         <v>0</v>
@@ -23373,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R440">
         <v>24</v>
@@ -23426,7 +23426,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23520,7 +23520,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23567,7 +23567,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23664,7 +23664,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R446">
         <v>11</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23808,7 +23808,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23858,7 +23858,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R450">
         <v>17</v>
@@ -23911,7 +23911,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R451">
         <v>21</v>
@@ -23961,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24011,7 +24011,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R453">
         <v>7</v>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24152,7 +24152,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24202,7 +24202,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24399,7 +24399,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R461">
         <v>24</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24502,7 +24502,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R463">
         <v>23</v>
@@ -24552,7 +24552,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24602,7 +24602,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R465">
         <v>9</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24705,7 +24705,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R467">
         <v>14</v>
@@ -24755,7 +24755,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24805,7 +24805,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R469">
         <v>4</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24902,7 +24902,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24949,7 +24949,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R476">
         <v>50</v>
@@ -25196,7 +25196,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R477">
         <v>4</v>
@@ -25252,7 +25252,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R478">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>1</v>
       </c>
       <c r="P479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25340,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
